--- a/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
+++ b/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
@@ -5,26 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EEC0EC-49BA-4EFE-86B5-0A18A59E643E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8B066AFA-9796-4132-9183-4DA443F98C41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="588" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8085" tabRatio="588" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_2_2018 Stock List" sheetId="2" r:id="rId1"/>
-    <sheet name="Price Change" sheetId="1" r:id="rId2"/>
-    <sheet name="50 day moving average" sheetId="5" r:id="rId3"/>
-    <sheet name="200 day average" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Overall List" sheetId="8" r:id="rId2"/>
+    <sheet name="Price Change" sheetId="1" r:id="rId3"/>
+    <sheet name="50 day moving average" sheetId="5" r:id="rId4"/>
+    <sheet name="200 day average" sheetId="4" r:id="rId5"/>
     <sheet name="Beta" sheetId="3" r:id="rId6"/>
     <sheet name="Option Volume" sheetId="6" r:id="rId7"/>
+    <sheet name="Earnings" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>TWTR</t>
   </si>
@@ -141,29 +139,80 @@
     <t>GOOG</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Sum of 8/27/2018</t>
-  </si>
-  <si>
-    <t>Sum of 8/27/2018_2</t>
-  </si>
-  <si>
-    <t>Sum of 8/28/2018</t>
+    <t>Earnings History - Surprises*</t>
+  </si>
+  <si>
+    <t>Qtr Ending</t>
+  </si>
+  <si>
+    <t>Reported</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Last 4 Quarters</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t> Reported</t>
+  </si>
+  <si>
+    <t> Estimate</t>
+  </si>
+  <si>
+    <t>Earnings Estimates</t>
+  </si>
+  <si>
+    <t>Current Qtr</t>
+  </si>
+  <si>
+    <t>Next Qtr</t>
+  </si>
+  <si>
+    <t>Fiscal Yr</t>
+  </si>
+  <si>
+    <t>Average Estimate</t>
+  </si>
+  <si>
+    <t>Number of Estimates</t>
+  </si>
+  <si>
+    <t>High Estimate</t>
+  </si>
+  <si>
+    <t>Low Estimate</t>
+  </si>
+  <si>
+    <t>Prior Year</t>
+  </si>
+  <si>
+    <t>Growth Rate Est. (year over year)</t>
+  </si>
+  <si>
+    <t>NOTE : If stock price over 50&amp;200-day moving average, highlight green = bullish</t>
+  </si>
+  <si>
+    <t>NOTE: If stock price over 50&amp;200-day moving average, highlight green = bullish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +230,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,11 +278,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,222 +297,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anker, Alexander (US Person)" refreshedDate="43339.675932523147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{4DC85C57-6520-470F-83FC-25CAAD11F653}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M1048576" sheet="Beta"/>
-  </cacheSource>
-  <cacheFields count="13">
-    <cacheField name="Stocks" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="AMD"/>
-        <s v="NVDA"/>
-        <s v="GOOG"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="8/27/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="8/28/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2" maxValue="4.3"/>
-    </cacheField>
-    <cacheField name="8/29/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3" maxValue="4.7"/>
-    </cacheField>
-    <cacheField name="8/30/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.5" maxValue="5.0333333333333297"/>
-    </cacheField>
-    <cacheField name="8/31/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4" maxValue="5.3833333333333302"/>
-    </cacheField>
-    <cacheField name="9/1/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.5" maxValue="6"/>
-    </cacheField>
-    <cacheField name="9/2/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="7"/>
-    </cacheField>
-    <cacheField name="9/3/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.5" maxValue="8"/>
-    </cacheField>
-    <cacheField name="9/4/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6" maxValue="9"/>
-    </cacheField>
-    <cacheField name="9/5/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.5" maxValue="10"/>
-    </cacheField>
-    <cacheField name="9/6/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7" maxValue="11"/>
-    </cacheField>
-    <cacheField name="9/7/2018" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7.5" maxValue="12"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="8"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="11"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="2.5"/>
-    <n v="3"/>
-    <n v="3.5"/>
-    <n v="4"/>
-    <n v="4.5"/>
-    <n v="5"/>
-    <n v="5.5"/>
-    <n v="6"/>
-    <n v="6.5"/>
-    <n v="7"/>
-    <n v="7.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="4.3"/>
-    <n v="4.7"/>
-    <n v="5.0333333333333297"/>
-    <n v="5.3833333333333302"/>
-    <n v="5.7333333333333298"/>
-    <n v="6.0833333333333304"/>
-    <n v="6.43333333333333"/>
-    <n v="6.7833333333333297"/>
-    <n v="7.1333333333333302"/>
-    <n v="7.4833333333333298"/>
-    <n v="7.8333333333333304"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D768D8E-D522-4D7C-B9DC-FF9826AB3A1D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of 8/27/2018" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 8/27/2018_2" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 8/28/2018" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,7 +599,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +699,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A49CF-243D-4997-8B31-8176BD44944E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT20"/>
   <sheetViews>
@@ -1282,12 +1134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CT20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,6 +1479,9 @@
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1669,12 +1524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CT1"/>
+  <dimension ref="A1:CT8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,104 +1839,9 @@
         <v>43435</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC053576-36F9-45E8-BB2A-1D74E3B414B9}">
-  <dimension ref="A3:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="10">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10">
-        <v>8.8000000000000007</v>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2533,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,4 +2329,399 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60AEFA-EE82-48A1-8D46-3702A9F7DB94}">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
+++ b/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8B066AFA-9796-4132-9183-4DA443F98C41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B352E20E-C619-440D-84F6-63A6A4929D6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8085" tabRatio="588" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8085" tabRatio="588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_2_2018 Stock List" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>TWTR</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>NOTE: If stock price over 50&amp;200-day moving average, highlight green = bullish</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>gooog</t>
+  </si>
+  <si>
+    <t>nvda</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -599,7 +611,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G5" sqref="A3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,13 +712,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A49CF-243D-4997-8B31-8176BD44944E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="8">
+        <v>123</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(100*123/125)%</f>
+        <v>0.9840000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>100</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>123</v>
+      </c>
+      <c r="G4" s="8">
+        <f>2/125</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1">
+        <v>37259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1">
+        <v>37258</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1528,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1990,7 @@
   <dimension ref="A1:CT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
+++ b/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B352E20E-C619-440D-84F6-63A6A4929D6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAAA770C-ABDD-450F-B62F-66ABB4866D75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8085" tabRatio="588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8085" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_2_2018 Stock List" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="50 day moving average" sheetId="5" r:id="rId4"/>
     <sheet name="200 day average" sheetId="4" r:id="rId5"/>
     <sheet name="Beta" sheetId="3" r:id="rId6"/>
-    <sheet name="Option Volume" sheetId="6" r:id="rId7"/>
-    <sheet name="Earnings" sheetId="9" r:id="rId8"/>
+    <sheet name="Earnings" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>TWTR</t>
   </si>
@@ -113,21 +112,6 @@
   </si>
   <si>
     <t>Stocks</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Earnings</t>
   </si>
   <si>
     <t>AMD</t>
@@ -610,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A3:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A49CF-243D-4997-8B31-8176BD44944E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,7 +794,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1">
         <v>37257</v>
@@ -818,7 +802,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1">
         <v>37259</v>
@@ -826,7 +810,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1">
         <v>37257</v>
@@ -834,7 +818,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1">
         <v>37258</v>
@@ -1616,7 +1600,7 @@
     <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.25">
@@ -1977,7 +1961,7 @@
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2032,7 @@
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2339,7 +2323,7 @@
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2380,7 +2364,7 @@
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2426,48 +2410,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60AEFA-EE82-48A1-8D46-3702A9F7DB94}">
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -2479,10 +2421,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2493,22 +2435,22 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2518,7 +2460,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2528,7 +2470,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2538,7 +2480,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2548,7 +2490,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2558,7 +2500,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2568,7 +2510,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2578,7 +2520,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2588,7 +2530,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2599,22 +2541,22 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2624,7 +2566,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2634,7 +2576,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2644,7 +2586,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2654,7 +2596,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2664,7 +2606,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2673,10 +2615,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2687,22 +2629,22 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2712,7 +2654,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2722,7 +2664,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2732,7 +2674,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2742,7 +2684,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2752,7 +2694,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2762,7 +2704,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2772,7 +2714,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2781,7 +2723,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2791,21 +2733,21 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2814,7 +2756,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2823,7 +2765,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2832,7 +2774,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2841,7 +2783,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2850,7 +2792,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>

--- a/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
+++ b/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAAA770C-ABDD-450F-B62F-66ABB4866D75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BDE8CD47-FFB0-4F3E-ADD5-C002B83EB1AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8085" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8085" tabRatio="588" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_2_2018 Stock List" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>TWTR</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>IFNEEDED</t>
+  </si>
+  <si>
+    <t>&lt;--- REAL</t>
   </si>
 </sst>
 </file>
@@ -594,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2411,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60AEFA-EE82-48A1-8D46-3702A9F7DB94}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2579,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
         <v>46</v>
@@ -2583,7 +2589,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>47</v>
@@ -2593,7 +2599,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>48</v>
@@ -2603,7 +2609,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>49</v>
@@ -2613,7 +2619,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -2624,8 +2630,11 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
@@ -2641,7 +2650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>32</v>
@@ -2651,7 +2660,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>33</v>
@@ -2661,7 +2670,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>34</v>
@@ -2671,7 +2680,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>35</v>
@@ -2681,125 +2690,304 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
+++ b/Copy of Updated-  StockExcelDesign - BNOEDIT (003).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BDE8CD47-FFB0-4F3E-ADD5-C002B83EB1AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C03A63E-8C8A-464F-9B4D-4B61F17A1B79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8085" tabRatio="588" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8085" tabRatio="588" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_2_2018 Stock List" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>TWTR</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>abc</t>
-  </si>
-  <si>
-    <t>IFNEEDED</t>
   </si>
   <si>
     <t>&lt;--- REAL</t>
@@ -2419,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60AEFA-EE82-48A1-8D46-3702A9F7DB94}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2628,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,18 +2698,33 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2720,7 +2732,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2728,263 +2740,250 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
